--- a/Process/Retrospective.xlsx
+++ b/Process/Retrospective.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="13" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="14" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Improvement</t>
   </si>
@@ -144,6 +145,9 @@
   </si>
   <si>
     <t>Technical leaders</t>
+  </si>
+  <si>
+    <t>Thao</t>
   </si>
 </sst>
 </file>
@@ -668,10 +672,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
+    <col min="2" max="3" width="75.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="150.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D20:D30 D3:D17">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Process/Retrospective.xlsx
+++ b/Process/Retrospective.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="14" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
   <si>
     <t>Improvement</t>
   </si>
@@ -148,6 +148,111 @@
   </si>
   <si>
     <t>Thao</t>
+  </si>
+  <si>
+    <t>Requirements are more clear</t>
+  </si>
+  <si>
+    <t>OT, stress</t>
+  </si>
+  <si>
+    <t>Learn and apply knowledge to project successfully</t>
+  </si>
+  <si>
+    <t>Finalize requirement</t>
+  </si>
+  <si>
+    <t>Regular scrum on time</t>
+  </si>
+  <si>
+    <t>Enthusiastic supporting from every team members</t>
+  </si>
+  <si>
+    <t>Preparing for demonstration is not very well.</t>
+  </si>
+  <si>
+    <t>It takes long time for review the task of UI/ UX design J</t>
+  </si>
+  <si>
+    <t>devoted to work, finished tasks ontime</t>
+  </si>
+  <si>
+    <t>avoid code smell</t>
+  </si>
+  <si>
+    <t>get used to backend part</t>
+  </si>
+  <si>
+    <t>teamwork productivity is improved</t>
+  </si>
+  <si>
+    <t>Come to meeting ontime</t>
+  </si>
+  <si>
+    <t>Need time to done a task</t>
+  </si>
+  <si>
+    <t>Apply knowledge to work</t>
+  </si>
+  <si>
+    <t>Team's Spirit is good</t>
+  </si>
+  <si>
+    <t>Process is slow, need to finish CMS by Wednesday</t>
+  </si>
+  <si>
+    <t>Back-end work very hard to have API soon</t>
+  </si>
+  <si>
+    <t>Leak of contact with customer (Mr. Huy) --&gt; busy</t>
+  </si>
+  <si>
+    <t>Design is good (Ms. Thao worked very hard)</t>
+  </si>
+  <si>
+    <t>Complicated history on code. --&gt; Define a branch, commit name convesion</t>
+  </si>
+  <si>
+    <t>Support each other</t>
+  </si>
+  <si>
+    <t>Welcome Thao to the team - Start UI/UX design</t>
+  </si>
+  <si>
+    <t>Willing learning</t>
+  </si>
+  <si>
+    <t>Finish task ontime</t>
+  </si>
+  <si>
+    <t>Hard working</t>
+  </si>
+  <si>
+    <t>Improve estimation</t>
+  </si>
+  <si>
+    <t>Read document carefully</t>
+  </si>
+  <si>
+    <t>Not follow adding spent time and estimate for tasks</t>
+  </si>
+  <si>
+    <t>Improve GIT flow</t>
+  </si>
+  <si>
+    <t>Apply what you have leant to tasks</t>
+  </si>
+  <si>
+    <t>Ask customer via email</t>
+  </si>
+  <si>
+    <t>Define conventions for git commit</t>
+  </si>
+  <si>
+    <t>Ky, Thanh</t>
+  </si>
+  <si>
+    <t>Thao, Thanh</t>
   </si>
 </sst>
 </file>
@@ -345,6 +450,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
@@ -352,15 +466,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,38 +813,68 @@
       <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="C7" s="18"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
@@ -755,66 +890,96 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="18"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="18"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="E14" s="16"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="E17" s="16"/>
@@ -824,27 +989,41 @@
       <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="18"/>
@@ -853,51 +1032,67 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="E25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="C26" s="18"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C27" s="18"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="17"/>
@@ -906,14 +1101,14 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="E30" s="16"/>
@@ -957,6 +1152,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -964,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1200,9 @@
       <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
@@ -1019,6 +1217,9 @@
       </c>
       <c r="C4" s="18" t="s">
         <v>37</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>39</v>
@@ -1044,6 +1245,9 @@
       <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1056,6 +1260,9 @@
       </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>39</v>
@@ -1068,6 +1275,9 @@
       <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>39</v>
       </c>
@@ -1082,6 +1292,9 @@
       </c>
       <c r="C9" s="19" t="s">
         <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>39</v>
@@ -1094,6 +1307,9 @@
       <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
       <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
@@ -1105,13 +1321,16 @@
       <c r="C11" s="18" t="s">
         <v>33</v>
       </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1126,7 +1345,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1354,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1386,7 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1182,7 +1401,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
@@ -1191,7 +1410,7 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
@@ -1200,7 +1419,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1209,49 +1428,60 @@
       <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
       <c r="E22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
       <c r="E23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
       <c r="E24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="7"/>
@@ -1260,14 +1490,14 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="E27" s="8"/>

--- a/Process/Retrospective.xlsx
+++ b/Process/Retrospective.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 2" sheetId="14" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="13" r:id="rId2"/>
+    <sheet name="Sprint 3" sheetId="15" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="14" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>Improvement</t>
   </si>
@@ -253,6 +254,123 @@
   </si>
   <si>
     <t>Thao, Thanh</t>
+  </si>
+  <si>
+    <t>Add estimated and spent task's time</t>
+  </si>
+  <si>
+    <t>refactor code</t>
+  </si>
+  <si>
+    <t>finished needed tasks</t>
+  </si>
+  <si>
+    <t>worked hard</t>
+  </si>
+  <si>
+    <t>Need to work harder, to better understand about Xamarin.</t>
+  </si>
+  <si>
+    <t>Start to use Estimated time in Trello</t>
+  </si>
+  <si>
+    <t>Need to arrange working time. (Bcs I've to go to school next week)</t>
+  </si>
+  <si>
+    <t>Working Process have been fasten a little bit</t>
+  </si>
+  <si>
+    <t>Expand Knowledge (Xamarin)</t>
+  </si>
+  <si>
+    <t>Supporters Help me a lot with the brand new language (Xamarin)</t>
+  </si>
+  <si>
+    <t>Clear process</t>
+  </si>
+  <si>
+    <t>UI/UX Design time and knowledge</t>
+  </si>
+  <si>
+    <t>Done basically CMS System</t>
+  </si>
+  <si>
+    <t>Slow learning process on Xamarin and MVVMCross --&gt; Finish tasks slow--&gt; Can not finish for the demo section in this spring</t>
+  </si>
+  <si>
+    <t>Have a real server, deploy API and CMS --&gt; Auto deploy or just manually?</t>
+  </si>
+  <si>
+    <t>Have no roadmap to learn and do Xamarin task and native knowledge --&gt; Just research and do the tasks--&gt; Risk to meet bugs in the future</t>
+  </si>
+  <si>
+    <t>Follow git flow good, use the united git flow</t>
+  </si>
+  <si>
+    <t>My code is not clear --&gt; Need to have a task to refactor code</t>
+  </si>
+  <si>
+    <t>UI Design almost finished</t>
+  </si>
+  <si>
+    <t>Despite of time and many challenges, We did some very impressive progress</t>
+  </si>
+  <si>
+    <t>I will try to arrange more time for this project</t>
+  </si>
+  <si>
+    <t>Discuss together to figure out the suitable solution</t>
+  </si>
+  <si>
+    <t>Lot of things to do (including navigation, popup…etc)</t>
+  </si>
+  <si>
+    <t>We're getting more helps from other people like Khoa</t>
+  </si>
+  <si>
+    <t>Facilitate members to take chance to become fullstack + mobile developer at the same time</t>
+  </si>
+  <si>
+    <t>understanding how the things work or code monkey is more important</t>
+  </si>
+  <si>
+    <t>Start to implement application on IOS and Android</t>
+  </si>
+  <si>
+    <t>Attempt to confine the technical discussion during scrum meeting</t>
+  </si>
+  <si>
+    <t>Finished most tasks</t>
+  </si>
+  <si>
+    <t>Discuss with technical leader before executing task</t>
+  </si>
+  <si>
+    <t>Ask help from technical leader for unclear things</t>
+  </si>
+  <si>
+    <t>Discuss with technical leader to figure out the solution</t>
+  </si>
+  <si>
+    <t>Developer Team</t>
+  </si>
+  <si>
+    <t>Understand what you did</t>
+  </si>
+  <si>
+    <t>Create online sheet to register working time, reschedule meetings</t>
+  </si>
+  <si>
+    <t>Create task on ToDO in the trello</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Leaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan </t>
   </si>
 </sst>
 </file>
@@ -777,9 +895,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="72" style="6" customWidth="1"/>
+    <col min="3" max="3" width="75.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="150.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D22:D32 D3:D19">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1156,11 +1702,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/Process/Retrospective.xlsx
+++ b/Process/Retrospective.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 3" sheetId="15" r:id="rId1"/>
-    <sheet name="Sprint 2" sheetId="14" r:id="rId2"/>
-    <sheet name="Sprint 1" sheetId="13" r:id="rId3"/>
+    <sheet name="Sprint 6" sheetId="16" r:id="rId1"/>
+    <sheet name="Sprint 3&amp;4" sheetId="15" r:id="rId2"/>
+    <sheet name="Sprint 2" sheetId="14" r:id="rId3"/>
+    <sheet name="Sprint 1" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="147">
   <si>
     <t>Improvement</t>
   </si>
@@ -361,9 +362,6 @@
     <t>Create online sheet to register working time, reschedule meetings</t>
   </si>
   <si>
-    <t>Create task on ToDO in the trello</t>
-  </si>
-  <si>
     <t>Learning</t>
   </si>
   <si>
@@ -371,13 +369,121 @@
   </si>
   <si>
     <t xml:space="preserve">Plan </t>
+  </si>
+  <si>
+    <t>Great suporting from marketing side about content</t>
+  </si>
+  <si>
+    <t>The process goes smoothly</t>
+  </si>
+  <si>
+    <t>Good cooperation members</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard working team ^^</t>
+    </r>
+  </si>
+  <si>
+    <t>Welcome new members Tung and Minh</t>
+  </si>
+  <si>
+    <t>Customer happy with landing page design</t>
+  </si>
+  <si>
+    <t>App more stable</t>
+  </si>
+  <si>
+    <t>Review tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long list of reviewing on trello </t>
+  </si>
+  <si>
+    <t>Had a new server and new prospective members</t>
+  </si>
+  <si>
+    <t>Used English in scrum meeting</t>
+  </si>
+  <si>
+    <t>the progress is slower because Lam was not in the team</t>
+  </si>
+  <si>
+    <t>Use English in Scrum meeting</t>
+  </si>
+  <si>
+    <t>School Schedule</t>
+  </si>
+  <si>
+    <t>We're getting more members</t>
+  </si>
+  <si>
+    <t>Deadline have been adjusted</t>
+  </si>
+  <si>
+    <t>Made some step on navigation improvement</t>
+  </si>
+  <si>
+    <t>Start to use English in Scrum</t>
+  </si>
+  <si>
+    <t>Put more effort on code review</t>
+  </si>
+  <si>
+    <t>Put more detail on commit message</t>
+  </si>
+  <si>
+    <t>(Should have on Phase 2) Plan to switch to use git flow</t>
+  </si>
+  <si>
+    <t>Tai, Quoc</t>
+  </si>
+  <si>
+    <t>Flexible and register working hour and can compensate later</t>
+  </si>
+  <si>
+    <t>Trung and Thanh</t>
+  </si>
+  <si>
+    <t>Ask help from other colleagues</t>
+  </si>
+  <si>
+    <t>Send article about how to create good commit message</t>
+  </si>
+  <si>
+    <t>Transfering working way about git flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle cases when internet conection is lost. </t>
+  </si>
+  <si>
+    <t>Pay attention in unhappy cases</t>
+  </si>
+  <si>
+    <t>ask technical leader first and Create task on ToDO in the trello later</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,6 +520,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -568,6 +680,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
@@ -575,15 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,16 +1007,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F39"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="72" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51" style="6" customWidth="1"/>
     <col min="3" max="3" width="75.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
@@ -928,6 +1040,376 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D19:D30 D3:D16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D18">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="C10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="72" style="6" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="150.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>6</v>
@@ -938,7 +1420,9 @@
       <c r="C3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>39</v>
       </c>
@@ -954,6 +1438,9 @@
       <c r="C4" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
       <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
@@ -969,6 +1456,9 @@
       <c r="C5" s="18" t="s">
         <v>96</v>
       </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
       <c r="E5" s="16" t="s">
         <v>39</v>
       </c>
@@ -995,6 +1485,9 @@
       <c r="C7" s="18" t="s">
         <v>83</v>
       </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>111</v>
       </c>
@@ -1010,6 +1503,9 @@
       <c r="C8" s="18" t="s">
         <v>85</v>
       </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
       <c r="E8" s="16" t="s">
         <v>3</v>
       </c>
@@ -1036,7 +1532,7 @@
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1045,15 +1541,18 @@
       <c r="C11" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
       <c r="E11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="18" t="s">
         <v>81</v>
       </c>
@@ -1062,7 +1561,7 @@
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="19" t="s">
         <v>82</v>
       </c>
@@ -1071,7 +1570,7 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -1084,7 +1583,7 @@
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
@@ -1093,14 +1592,14 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="E16" s="16"/>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -1109,15 +1608,18 @@
       <c r="C17" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="18" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1628,7 @@
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="18" t="s">
         <v>89</v>
       </c>
@@ -1145,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="17"/>
     </row>
@@ -1166,7 +1668,7 @@
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -1179,22 +1681,25 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>101</v>
       </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
       <c r="E24" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="18" t="s">
         <v>102</v>
       </c>
@@ -1203,7 +1708,7 @@
       <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -1212,13 +1717,16 @@
       <c r="C26" s="17" t="s">
         <v>106</v>
       </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
       <c r="E26" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="17" t="s">
         <v>105</v>
       </c>
@@ -1227,21 +1735,21 @@
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="17"/>
@@ -1250,14 +1758,14 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="18"/>
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="E32" s="16"/>
@@ -1321,12 +1829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1873,9 @@
       <c r="C3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="16" t="s">
         <v>39</v>
       </c>
@@ -1381,6 +1891,9 @@
       <c r="C4" s="18" t="s">
         <v>62</v>
       </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
       <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1910,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>76</v>
@@ -1466,7 +1979,7 @@
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1481,7 +1994,7 @@
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18" t="s">
         <v>46</v>
       </c>
@@ -1490,14 +2003,14 @@
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="E14" s="16"/>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1512,7 +2025,7 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +2038,7 @@
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="E17" s="16"/>
@@ -1569,7 +2082,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="18"/>
@@ -1578,21 +2091,21 @@
       <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="18" t="s">
@@ -1607,7 +2120,7 @@
       <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="17" t="s">
         <v>47</v>
       </c>
@@ -1620,7 +2133,7 @@
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +2142,7 @@
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
@@ -1638,7 +2151,7 @@
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="17"/>
@@ -1647,14 +2160,14 @@
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="17"/>
       <c r="C29" s="18"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="E30" s="16"/>
@@ -1702,12 +2215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +2389,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1891,7 +2404,7 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +2413,7 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
@@ -1932,7 +2445,7 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -1947,7 +2460,7 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +2469,7 @@
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
@@ -1965,7 +2478,7 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1983,7 +2496,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="15" t="s">
         <v>18</v>
       </c>
@@ -1999,7 +2512,7 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="15"/>
       <c r="C23" s="14" t="s">
         <v>21</v>
@@ -2013,7 +2526,7 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>20</v>
@@ -2027,7 +2540,7 @@
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="7"/>
@@ -2036,14 +2549,14 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="E26" s="8"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="E27" s="8"/>
